--- a/dados/dados.xlsx
+++ b/dados/dados.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="83">
   <si>
     <t>Carimbo de data/hora</t>
   </si>
@@ -218,6 +218,48 @@
   </si>
   <si>
     <t>entregar meu pet mais rápido</t>
+  </si>
+  <si>
+    <t>responder mais rápido</t>
+  </si>
+  <si>
+    <t>mais promoções</t>
+  </si>
+  <si>
+    <t>Não tenho o que reclamar</t>
+  </si>
+  <si>
+    <t>Não encontrei problemas</t>
+  </si>
+  <si>
+    <t>Mais agilidade no atendimento</t>
+  </si>
+  <si>
+    <t>entregar o pet mais rápido</t>
+  </si>
+  <si>
+    <t>Responder mais rápido</t>
+  </si>
+  <si>
+    <t>respostas mais rápidas</t>
+  </si>
+  <si>
+    <t>Acho que não tem nada para melhorar</t>
+  </si>
+  <si>
+    <t>A loja está de parabéns</t>
+  </si>
+  <si>
+    <t>Mais rapidez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sem reclamações </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poderiam ter mais promoções </t>
+  </si>
+  <si>
+    <t>Nao encontrei problemas</t>
   </si>
 </sst>
 </file>
@@ -254,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -269,6 +311,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -345,7 +393,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L30" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:L44" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="12">
     <tableColumn name="Carimbo de data/hora" id="1"/>
     <tableColumn name="Qual sua faixa etária?" id="2"/>
@@ -1668,6 +1716,496 @@
       </c>
       <c r="L30" s="4"/>
     </row>
+    <row r="31" ht="22.5" customHeight="1">
+      <c r="A31" s="5">
+        <v>45972.43762635416</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="6">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="32" ht="22.5" customHeight="1">
+      <c r="A32" s="5">
+        <v>45972.43844607639</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="K32" s="6">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="5">
+        <v>45972.438995902776</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="6">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="34" ht="22.5" customHeight="1">
+      <c r="A34" s="5">
+        <v>45972.43985841435</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K34" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" s="5">
+        <v>45972.44117706019</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="6">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" s="5">
+        <v>45972.44249543981</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="5">
+        <v>45972.44296783565</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K37" s="6">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="38" ht="22.5" customHeight="1">
+      <c r="A38" s="5">
+        <v>45972.44381734954</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" s="6">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="39" ht="22.5" customHeight="1">
+      <c r="A39" s="5">
+        <v>45972.44430883102</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K39" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="40" ht="22.5" customHeight="1">
+      <c r="A40" s="5">
+        <v>45972.44502900463</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="41" ht="22.5" customHeight="1">
+      <c r="A41" s="5">
+        <v>45972.44564600695</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="6">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="42" ht="22.5" customHeight="1">
+      <c r="A42" s="5">
+        <v>45972.44621324074</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K42" s="6">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="43" ht="22.5" customHeight="1">
+      <c r="A43" s="5">
+        <v>45972.44663744213</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K43" s="6">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="44" ht="22.5" customHeight="1">
+      <c r="A44" s="5">
+        <v>45972.447130243054</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K44" s="6">
+        <v>10.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
